--- a/lib/db/output_directory/Monthly Income.xlsx
+++ b/lib/db/output_directory/Monthly Income.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Variance</t>
+          <t>Variance:</t>
         </is>
       </c>
     </row>
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="n">
-        <v>-500</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
